--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C580"/>
+  <dimension ref="A1:C798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -8734,6 +8734,3164 @@
     </row>
     <row r="580">
       <c r="B580" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>1.362</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>1.877</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>4.129</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>2.486</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>5.465</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>2.716</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>6.791</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>1.165</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:13 (Kyiv+Israel) 05:13 (UTC) 14:13 (Japan) 10:43 (India)</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:13 (Kyiv+Israel) 05:13 (UTC) 14:13 (Japan) 10:43 (India)</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:13 (Kyiv+Israel) 05:13 (UTC) 14:13 (Japan) 10:43 (India)</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>3.306</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:13 (Kyiv+Israel) 05:13 (UTC) 14:13 (Japan) 10:43 (India)</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>1.193</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>1.948</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>4.226</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>0.799</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>0.711</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>2.384</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>1.538</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>5.261</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>1.997</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1.568</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>4.244</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>0.679</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>0.767</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1.531</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1.097</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>4.341</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>0.764</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1.081</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>0.847</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>4.722</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>4.395</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>0.837</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>3.628</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1.535</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1.092</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1.173</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>4.339</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1.237</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>0.911</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>4.141</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>0.721</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1.935</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>4.998</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>3.953</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>1.128</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>4.489</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>1.062</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>1.504</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>4.786</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1.442</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>1.015</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>1.311</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>1.919</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>7.236</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>2.033</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>6.843</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>1.039</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>1.058</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>1.155</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>1.719</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>1.269</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>1.383</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>3.678</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>3.664</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1.231</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>1.166</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>6.265</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0.678</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0.903</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>3.664</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>1.299</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>1.057</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>4.163</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0.843</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0.763</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>2.533</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>1.269</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>1.274</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>4.144</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>1.141</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>1.431</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>4.073</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>1.311</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>1.111</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>1.051</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>5.027</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>0.891</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="B798" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -8786,7 +11944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C580"/>
+  <dimension ref="A1:C798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -17168,6 +20326,3164 @@
     </row>
     <row r="580">
       <c r="B580" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>9.337999999999999</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>2.459</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>1.513</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>1.315</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>5.115</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>2.119</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>10.04.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:13 (Kyiv+Israel) 05:13 (UTC) 14:13 (Japan) 10:43 (India)</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:13 (Kyiv+Israel) 05:13 (UTC) 14:13 (Japan) 10:43 (India)</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:13 (Kyiv+Israel) 05:13 (UTC) 14:13 (Japan) 10:43 (India)</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>2.382</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>0.854</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>0.719</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:14 (Kyiv+Israel) 05:14 (UTC) 14:14 (Japan) 10:44 (India)</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>1.473</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>0.722</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>0.695</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>1.444</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1.777</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>10.05.2022 08:15 (Kyiv+Israel) 05:15 (UTC) 14:15 (Japan) 10:45 (India)</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1.448</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2.633</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>10.05.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1.456</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1.755</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>10.05.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2.377</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1.828</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>10.05.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>2.369</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>1.474</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>1.785</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>0.537</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>10.05.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:50 (Kyiv+Israel) 05:50 (UTC) 14:50 (Japan) 11:20 (India)</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1.678</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>0.902</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>2.068</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>0.714</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>10.06.2022 08:51 (Kyiv+Israel) 05:51 (UTC) 14:51 (Japan) 11:21 (India)</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>1.497</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>1.459</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1.727</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>10.06.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>3.489</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>2.015</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>10.06.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>2.551</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>1.447</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>10.06.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>2.002</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>10.06.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>2.074</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>1.444</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>1.705</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>10.06.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>2.344</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>1.799</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0.306</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>10.07.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0.451</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>2.153</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>1.437</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>1.882</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>10.07.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0.531</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0.585</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>10.07.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>1.981</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:23 (Kyiv+Israel) 11:23 (UTC) 20:23 (Japan) 16:53 (India)</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>2.881</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>1.846</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>0.897</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>2.239</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>10.07.2022 14:24 (Kyiv+Israel) 11:24 (UTC) 20:24 (Japan) 16:54 (India)</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="B798" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C798"/>
+  <dimension ref="A1:C1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -11892,6 +11892,3844 @@
     </row>
     <row r="798">
       <c r="B798" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>0.237</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>4.104</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>1.531</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>1.943</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>2.948</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>4.249</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>1.134</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>0.883</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>0.767</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>1.607</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>3.958</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>1.428</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>4.368</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:33 (Kyiv+Israel) 16:33 (UTC) 01:33 (Japan) 22:03 (India)</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:33 (Kyiv+Israel) 16:33 (UTC) 01:33 (Japan) 22:03 (India)</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:33 (Kyiv+Israel) 16:33 (UTC) 01:33 (Japan) 22:03 (India)</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>1.412</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>1.322</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>5.088</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>1.478</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>3.924</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>4.535</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>1.192</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>1.103</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>2.232</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>3.966</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>1.568</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>4.067</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>0.883</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>1.321</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>1.074</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>1.061</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>4.146</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>0.786</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>4.864</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>1.308</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>4.622</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>0.207</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>0.913</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>0.841</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>3.862</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>1.176</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>4.574</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>1.687</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>6.552</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>1.483</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>1.684</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>4.283</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>2.167</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>1.086</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>3.917</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>1.164</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>1.047</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>5.262</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>0.762</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>0.715</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>1.031</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>1.045</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>1.297</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>1.031</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>4.671</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>0.773</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>0.843</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>1.291</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>1.993</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>6.191</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>2.613</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>1.386</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>1.294</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:59 (Kyiv+Israel) 06:59 (UTC) 15:59 (Japan) 12:29 (India)</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>2.931</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:59 (Kyiv+Israel) 06:59 (UTC) 15:59 (Japan) 12:29 (India)</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>4.236</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>1.243</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>4.179</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>1.555</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>1.092</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>1.733</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>5.557</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>3.047</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C967" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C968" t="n">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C969" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C970" t="n">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C971" t="n">
+        <v>3.988</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C972" t="n">
+        <v>1.158</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C973" t="n">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C974" t="n">
+        <v>1.068</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C975" t="n">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C976" t="n">
+        <v>5.011</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C977" t="n">
+        <v>1.074</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C978" t="n">
+        <v>0.896</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C979" t="n">
+        <v>0.883</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>4.552</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>1.061</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>4.232</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>0.957</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>1.096</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
+        <v>4.182</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>1.021</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>4.394</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>1.262</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>1.164</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>1.247</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>1.191</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>4.234</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>0.837</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1023" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1024" t="n">
+        <v>1.128</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1026" t="n">
+        <v>0.732</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1027" t="n">
+        <v>4.841</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1028" t="n">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1029" t="n">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1030" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1031" t="n">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1032" t="n">
+        <v>4.218</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1033" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1034" t="n">
+        <v>1.287</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1035" t="n">
+        <v>0.716</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1037" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1038" t="n">
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1039" t="n">
+        <v>1.172</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1040" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1041" t="n">
+        <v>4.091</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1042" t="n">
+        <v>1.658</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1043" t="n">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1044" t="n">
+        <v>1.268</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1045" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1046" t="n">
+        <v>4.146</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1047" t="n">
+        <v>0.865</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1048" t="n">
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1049" t="n">
+        <v>0.847</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1051" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1052" t="n">
+        <v>1.214</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>1.111</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>0.841</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>3.942</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>1.513</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>1.381</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>0.757</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>0.715</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="B1064" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -11944,7 +15782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C798"/>
+  <dimension ref="A1:C1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -23484,6 +27322,3844 @@
     </row>
     <row r="798">
       <c r="B798" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>2.938</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>0.513</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>1.092</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>10.07.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>0.649</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>1.674</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>1.976</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>0.368</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:33 (Kyiv+Israel) 16:33 (UTC) 01:33 (Japan) 22:03 (India)</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>1.738</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:33 (Kyiv+Israel) 16:33 (UTC) 01:33 (Japan) 22:03 (India)</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:33 (Kyiv+Israel) 16:33 (UTC) 01:33 (Japan) 22:03 (India)</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>10.07.2022 19:33 (Kyiv+Israel) 16:33 (UTC) 01:33 (Japan) 22:03 (India)</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>0.478</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>0.451</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>2.604</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>2.592</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>0.478</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>1.632</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>2.688</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>0.698</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>10.07.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>0.306</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>10.08.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>0.574</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>2.217</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>0.348</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>1.751</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>0.617</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>10.08.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>0.409</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>0.724</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>1.648</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>1.724</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>10.08.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>0.361</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>0.711</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>1.758</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>10.09.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:43 (Kyiv+Israel) 13:43 (UTC) 22:43 (Japan) 19:13 (India)</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>2.158</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>1.797</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>0.782</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>10.09.2022 16:44 (Kyiv+Israel) 13:44 (UTC) 22:44 (Japan) 19:14 (India)</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>2.233</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>1.652</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>1.717</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>10.09.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>0.368</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>1.588</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>1.756</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>0.618</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>10.09.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>0.717</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>2.698</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>2.202</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:58 (Kyiv+Israel) 06:58 (UTC) 15:58 (Japan) 12:28 (India)</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>2.142</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:59 (Kyiv+Israel) 06:59 (UTC) 15:59 (Japan) 12:29 (India)</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>1.976</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:59 (Kyiv+Israel) 06:59 (UTC) 15:59 (Japan) 12:29 (India)</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>10.10.2022 09:59 (Kyiv+Israel) 06:59 (UTC) 15:59 (Japan) 12:29 (India)</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>1.112</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>1.678</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>2.037</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>10.10.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C967" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C968" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C969" t="n">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C970" t="n">
+        <v>2.203</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C971" t="n">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C972" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C973" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C974" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C975" t="n">
+        <v>1.041</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C976" t="n">
+        <v>2.172</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C977" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C978" t="n">
+        <v>0.781</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>10.10.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C979" t="n">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>2.124</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>1.311</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>1.717</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>10.10.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>2.165</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
+        <v>1.685</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>1.754</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>0.636</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>10.11.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>0.549</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>2.126</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>1.683</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>0.348</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>0.956</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>1.751</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>0.368</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>10.11.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1023" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1024" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1026" t="n">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1027" t="n">
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1028" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1029" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1030" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1031" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1032" t="n">
+        <v>1.759</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1033" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1034" t="n">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>10.11.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1035" t="n">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1037" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1038" t="n">
+        <v>0.514</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1039" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1040" t="n">
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1041" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1042" t="n">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1043" t="n">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1044" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1045" t="n">
+        <v>1.684</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1046" t="n">
+        <v>1.793</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1047" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1048" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>10.11.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1049" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1051" t="n">
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1052" t="n">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>2.802</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>1.327</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>1.926</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>10.11.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="B1064" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1064"/>
+  <dimension ref="A1:C1190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -15730,6 +15730,1824 @@
     </row>
     <row r="1064">
       <c r="B1064" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>2.252</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>1.487</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>3.951</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>2.005</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>1.882</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>4.113</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>0.886</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>0.488</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>4.676</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>4.163</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>3.465</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>1.185</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>1.411</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>4.105</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1089" t="n">
+        <v>2.712</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1090" t="n">
+        <v>1.178</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1091" t="n">
+        <v>2.416</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1093" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1094" t="n">
+        <v>1.505</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1095" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>5.407</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>3.978</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>1.442</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>1.353</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>1.402</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>4.239</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>1.047</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>5.119</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>1.255</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>4.481</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1118" t="n">
+        <v>0.798</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1119" t="n">
+        <v>0.706</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1121" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1122" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1123" t="n">
+        <v>2.656</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1124" t="n">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1125" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1126" t="n">
+        <v>1.503</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1127" t="n">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1128" t="n">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1129" t="n">
+        <v>3.271</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1130" t="n">
+        <v>6.735</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1131" t="n">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1132" t="n">
+        <v>1.622</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1133" t="n">
+        <v>2.112</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1135" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1136" t="n">
+        <v>1.309</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1137" t="n">
+        <v>1.287</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1138" t="n">
+        <v>2.207</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1139" t="n">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1140" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1141" t="n">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1142" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1143" t="n">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1144" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1145" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1146" t="n">
+        <v>0.841</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1147" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1149" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1150" t="n">
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1151" t="n">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1152" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1153" t="n">
+        <v>4.089</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1154" t="n">
+        <v>1.684</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1155" t="n">
+        <v>1.203</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1156" t="n">
+        <v>1.239</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1157" t="n">
+        <v>1.106</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1158" t="n">
+        <v>4.169</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1159" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1160" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1161" t="n">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1163" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1164" t="n">
+        <v>1.589</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1165" t="n">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1166" t="n">
+        <v>1.457</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1167" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1168" t="n">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1169" t="n">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1170" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1171" t="n">
+        <v>0.981</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1172" t="n">
+        <v>4.098</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1173" t="n">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1174" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1175" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1177" t="n">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1178" t="n">
+        <v>1.169</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1179" t="n">
+        <v>1.635</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1180" t="n">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1181" t="n">
+        <v>3.986</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1182" t="n">
+        <v>1.359</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1183" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1184" t="n">
+        <v>1.251</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1185" t="n">
+        <v>1.023</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1186" t="n">
+        <v>4.082</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1187" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1188" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1189" t="n">
+        <v>0.695</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="B1190" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -15782,7 +17600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1064"/>
+  <dimension ref="A1:C1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -31160,6 +32978,1824 @@
     </row>
     <row r="1064">
       <c r="B1064" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>0.516</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>1.829</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:52 (Kyiv+Israel) 09:52 (UTC) 18:52 (Japan) 15:22 (India)</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>1.019</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>1.782</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>0.661</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>1.416</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:53 (Kyiv+Israel) 09:53 (UTC) 18:53 (Japan) 15:23 (India)</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>1.705</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>0.448</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>1.299</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>1.874</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1089" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1090" t="n">
+        <v>1.961</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:54 (Kyiv+Israel) 09:54 (UTC) 18:54 (Japan) 15:24 (India)</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1091" t="n">
+        <v>0.835</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1093" t="n">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1094" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1095" t="n">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>2.272</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>1.691</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>0.698</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>1.743</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>10.12.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>0.616</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>0.596</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>1.707</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>1.707</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1118" t="n">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>10.12.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1119" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1121" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1122" t="n">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1123" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1124" t="n">
+        <v>1.813</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1125" t="n">
+        <v>2.207</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1126" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1127" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1128" t="n">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1129" t="n">
+        <v>2.467</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1130" t="n">
+        <v>2.134</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1131" t="n">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1132" t="n">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>10.12.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1133" t="n">
+        <v>1.995</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1135" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1136" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1137" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1138" t="n">
+        <v>1.951</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1139" t="n">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1140" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1141" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1142" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1143" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1144" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1145" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1146" t="n">
+        <v>1.055</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>10.12.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1147" t="n">
+        <v>0.427</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1149" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1150" t="n">
+        <v>0.859</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1151" t="n">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1152" t="n">
+        <v>2.042</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1153" t="n">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1154" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1155" t="n">
+        <v>0.409</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1156" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1157" t="n">
+        <v>1.065</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1158" t="n">
+        <v>1.975</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1159" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1160" t="n">
+        <v>0.791</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>10.13.2022 09:57 (Kyiv+Israel) 06:57 (UTC) 15:57 (Japan) 12:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1161" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1163" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1164" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1165" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1166" t="n">
+        <v>2.828</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1167" t="n">
+        <v>2.061</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1168" t="n">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1169" t="n">
+        <v>0.361</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1170" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1171" t="n">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1172" t="n">
+        <v>1.803</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1173" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1174" t="n">
+        <v>0.514</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>10.13.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1175" t="n">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1177" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1178" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1179" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1180" t="n">
+        <v>2.231</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1181" t="n">
+        <v>1.677</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1182" t="n">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1183" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1184" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1185" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1186" t="n">
+        <v>2.041</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1187" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1188" t="n">
+        <v>0.516</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>10.13.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1189" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="B1190" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1190"/>
+  <dimension ref="A1:C1204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -17548,6 +17548,208 @@
     </row>
     <row r="1190">
       <c r="B1190" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1191" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1192" t="n">
+        <v>2.709</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1193" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1194" t="n">
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1195" t="n">
+        <v>6.936</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1196" t="n">
+        <v>1.818</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1197" t="n">
+        <v>1.172</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1198" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1199" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1200" t="n">
+        <v>4.222</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1201" t="n">
+        <v>1.473</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1202" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1203" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="B1204" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -17600,7 +17802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1190"/>
+  <dimension ref="A1:C1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -34796,6 +34998,208 @@
     </row>
     <row r="1190">
       <c r="B1190" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1191" t="n">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1192" t="n">
+        <v>0.453</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1193" t="n">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1194" t="n">
+        <v>2.608</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1195" t="n">
+        <v>1.678</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1196" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1197" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1198" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1199" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1200" t="n">
+        <v>1.692</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1201" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1202" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>10.13.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1203" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="B1204" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1204"/>
+  <dimension ref="A1:C1260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -17750,6 +17750,814 @@
     </row>
     <row r="1204">
       <c r="B1204" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1205" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1206" t="n">
+        <v>1.769</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1207" t="n">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1208" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1209" t="n">
+        <v>4.372</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1210" t="n">
+        <v>1.249</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1211" t="n">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1212" t="n">
+        <v>1.648</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1213" t="n">
+        <v>1.311</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1214" t="n">
+        <v>4.131</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1215" t="n">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1216" t="n">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1217" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1219" t="n">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1220" t="n">
+        <v>1.344</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1221" t="n">
+        <v>2.565</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1222" t="n">
+        <v>1.253</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1223" t="n">
+        <v>4.093</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1224" t="n">
+        <v>1.544</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1225" t="n">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1226" t="n">
+        <v>1.367</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1227" t="n">
+        <v>1.205</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1228" t="n">
+        <v>4.673</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1229" t="n">
+        <v>1.201</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1230" t="n">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1231" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1233" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1234" t="n">
+        <v>1.239</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1235" t="n">
+        <v>1.169</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1236" t="n">
+        <v>0.866</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1237" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1238" t="n">
+        <v>1.359</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1239" t="n">
+        <v>2.771</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1240" t="n">
+        <v>1.484</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1241" t="n">
+        <v>1.803</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1242" t="n">
+        <v>4.276</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1243" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:57 (Kyiv+Israel) 12:57 (UTC) 21:57 (Japan) 18:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1244" t="n">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:57 (Kyiv+Israel) 12:57 (UTC) 21:57 (Japan) 18:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1245" t="n">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1247" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1248" t="n">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1249" t="n">
+        <v>1.066</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1250" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1251" t="n">
+        <v>3.965</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1252" t="n">
+        <v>1.817</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1253" t="n">
+        <v>2.293</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1254" t="n">
+        <v>1.227</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1255" t="n">
+        <v>2.051</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1256" t="n">
+        <v>6.376</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1257" t="n">
+        <v>0.882</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1258" t="n">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1259" t="n">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="B1260" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -17802,7 +18610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1204"/>
+  <dimension ref="A1:C1260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -35200,6 +36008,814 @@
     </row>
     <row r="1204">
       <c r="B1204" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1205" t="n">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1206" t="n">
+        <v>0.478</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1207" t="n">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1208" t="n">
+        <v>4.055</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1209" t="n">
+        <v>1.734</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1210" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1211" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1212" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1213" t="n">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1214" t="n">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1215" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1216" t="n">
+        <v>0.729</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>10.13.2022 22:03 (Kyiv+Israel) 19:03 (UTC) 04:03 (Japan) 00:33 (India)</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1217" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1219" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1220" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1221" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1222" t="n">
+        <v>2.086</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1223" t="n">
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1224" t="n">
+        <v>0.584</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1225" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1226" t="n">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1227" t="n">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1228" t="n">
+        <v>1.928</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1229" t="n">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1230" t="n">
+        <v>0.659</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>10.14.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1231" t="n">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1233" t="n">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1234" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1235" t="n">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1236" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1237" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1238" t="n">
+        <v>0.782</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1239" t="n">
+        <v>0.838</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1240" t="n">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1241" t="n">
+        <v>1.587</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1242" t="n">
+        <v>1.833</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:57 (Kyiv+Israel) 12:57 (UTC) 21:57 (Japan) 18:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1243" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:57 (Kyiv+Israel) 12:57 (UTC) 21:57 (Japan) 18:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1244" t="n">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>10.14.2022 15:57 (Kyiv+Israel) 12:57 (UTC) 21:57 (Japan) 18:27 (India)</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1245" t="n">
+        <v>0.868</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1247" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1248" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1249" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1250" t="n">
+        <v>1.974</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:31 (Kyiv+Israel) 16:31 (UTC) 01:31 (Japan) 22:01 (India)</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1251" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1252" t="n">
+        <v>0.549</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1253" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1254" t="n">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1255" t="n">
+        <v>2.941</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1256" t="n">
+        <v>5.067</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1257" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1258" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>10.14.2022 19:32 (Kyiv+Israel) 16:32 (UTC) 01:32 (Japan) 22:02 (India)</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1259" t="n">
+        <v>0.598</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="B1260" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1680"/>
+  <dimension ref="A1:C1876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -24618,6 +24618,2834 @@
     </row>
     <row r="1680">
       <c r="B1680" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1681" t="n">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1682" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1683" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1684" t="n">
+        <v>2.788</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1685" t="n">
+        <v>3.853</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1686" t="n">
+        <v>1.342</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1687" t="n">
+        <v>1.191</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1688" t="n">
+        <v>1.164</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1689" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1690" t="n">
+        <v>4.133</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1691" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1693" t="n">
+        <v>0.773</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>1.387</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1697" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1698" t="n">
+        <v>1.525</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1699" t="n">
+        <v>3.844</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1700" t="n">
+        <v>1.452</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1701" t="n">
+        <v>1.331</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1702" t="n">
+        <v>1.798</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1703" t="n">
+        <v>1.061</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1704" t="n">
+        <v>4.299</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1705" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1706" t="n">
+        <v>1.603</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1707" t="n">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1709" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1710" t="n">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1711" t="n">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1712" t="n">
+        <v>0.856</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1713" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1714" t="n">
+        <v>1.186</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1715" t="n">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1716" t="n">
+        <v>1.211</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1717" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1718" t="n">
+        <v>4.122</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1719" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1720" t="n">
+        <v>0.889</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1721" t="n">
+        <v>0.722</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1723" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1724" t="n">
+        <v>1.649</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1725" t="n">
+        <v>1.168</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1726" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1727" t="n">
+        <v>4.105</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1728" t="n">
+        <v>1.447</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1729" t="n">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1730" t="n">
+        <v>1.153</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1731" t="n">
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1732" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1733" t="n">
+        <v>1.278</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1734" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1735" t="n">
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1737" t="n">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1738" t="n">
+        <v>1.203</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1739" t="n">
+        <v>1.124</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1740" t="n">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1741" t="n">
+        <v>3.894</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1742" t="n">
+        <v>1.271</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1743" t="n">
+        <v>1.147</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1744" t="n">
+        <v>1.067</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1745" t="n">
+        <v>1.068</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1746" t="n">
+        <v>4.181</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1747" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1748" t="n">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1749" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1751" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1752" t="n">
+        <v>1.384</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1753" t="n">
+        <v>1.141</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1754" t="n">
+        <v>1.968</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1755" t="n">
+        <v>4.043</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1756" t="n">
+        <v>1.267</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1757" t="n">
+        <v>1.626</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1758" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1759" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1760" t="n">
+        <v>5.363</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1761" t="n">
+        <v>0.882</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1762" t="n">
+        <v>1.187</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1763" t="n">
+        <v>1.412</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1765" t="n">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1766" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1767" t="n">
+        <v>0.949</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1768" t="n">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1769" t="n">
+        <v>4.059</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1770" t="n">
+        <v>1.215</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1771" t="n">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1772" t="n">
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1773" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1774" t="n">
+        <v>4.142</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1775" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1776" t="n">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1777" t="n">
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1779" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1780" t="n">
+        <v>1.474</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1781" t="n">
+        <v>1.237</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1782" t="n">
+        <v>3.891</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1783" t="n">
+        <v>3.953</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1784" t="n">
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1785" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1786" t="n">
+        <v>1.352</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1787" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1788" t="n">
+        <v>4.175</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1789" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1790" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1791" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1793" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1794" t="n">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1795" t="n">
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1796" t="n">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1797" t="n">
+        <v>3.824</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1798" t="n">
+        <v>1.893</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1799" t="n">
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1800" t="n">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1801" t="n">
+        <v>1.505</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1802" t="n">
+        <v>4.309</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1803" t="n">
+        <v>1.183</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1804" t="n">
+        <v>1.023</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1805" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1807" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1808" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>3.975</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>1.595</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>1.112</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>0.912</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>0.533</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>1.168</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>1.412</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>1.352</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>1.735</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>1.314</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>2.383</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>4.466</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>1.035</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>1.037</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>3.876</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>4.051</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>1.086</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>1.035</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>1.269</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>1.072</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>4.223</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>1.318</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>0.294</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>1.288</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>3.795</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>1.986</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>1.387</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>2.147</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>0.848</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="B1876" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -24670,7 +27498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1680"/>
+  <dimension ref="A1:C1876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -48936,6 +51764,2834 @@
     </row>
     <row r="1680">
       <c r="B1680" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1681" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1682" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1683" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1684" t="n">
+        <v>2.082</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1685" t="n">
+        <v>1.637</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1686" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1687" t="n">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1688" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:55 (Kyiv+Israel) 21:55 (UTC) 06:55 (Japan) 03:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1689" t="n">
+        <v>1.031</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1690" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1691" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1692" t="n">
+        <v>0.639</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>10.21.2022 00:56 (Kyiv+Israel) 21:56 (UTC) 06:56 (Japan) 03:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1693" t="n">
+        <v>0.598</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1697" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1698" t="n">
+        <v>2.318</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1699" t="n">
+        <v>1.623</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1700" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1701" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1702" t="n">
+        <v>0.552</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1703" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1704" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1705" t="n">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1706" t="n">
+        <v>0.716</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>10.21.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1707" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1709" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1710" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1711" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1712" t="n">
+        <v>2.041</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1713" t="n">
+        <v>1.653</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1714" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1715" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1716" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1717" t="n">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1718" t="n">
+        <v>1.801</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1719" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1720" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>10.21.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1721" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1723" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1724" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1725" t="n">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1726" t="n">
+        <v>2.385</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1727" t="n">
+        <v>1.714</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1728" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1729" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1730" t="n">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1731" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1732" t="n">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1733" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1734" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>10.21.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1735" t="n">
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1737" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1738" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1739" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1740" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1741" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1742" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1743" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1744" t="n">
+        <v>0.663</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1745" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1746" t="n">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1747" t="n">
+        <v>0.294</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1748" t="n">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>10.21.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1749" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1751" t="n">
+        <v>0.533</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1752" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1753" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1754" t="n">
+        <v>2.183</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1755" t="n">
+        <v>1.654</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1756" t="n">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1757" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1758" t="n">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1759" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1760" t="n">
+        <v>7.967</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1761" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1762" t="n">
+        <v>0.577</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>10.21.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1763" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1765" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1766" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1767" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1768" t="n">
+        <v>2.541</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1769" t="n">
+        <v>1.663</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1770" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1771" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1772" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1773" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1774" t="n">
+        <v>1.682</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1775" t="n">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1776" t="n">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>10.22.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1777" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1779" t="n">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1780" t="n">
+        <v>0.656</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1781" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1782" t="n">
+        <v>2.429</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1783" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1784" t="n">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1785" t="n">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1786" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1787" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1788" t="n">
+        <v>1.699</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1789" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1790" t="n">
+        <v>0.534</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>10.22.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1791" t="n">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1793" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1794" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1795" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1796" t="n">
+        <v>2.413</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1797" t="n">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1798" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1799" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1800" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1801" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1802" t="n">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1803" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1804" t="n">
+        <v>0.532</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>10.23.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1805" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1807" t="n">
+        <v>0.534</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1808" t="n">
+        <v>0.607</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>2.053</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>1.706</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>0.534</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>1.679</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>10.24.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>1.691</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>0.608</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>10.24.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>2.438</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>1.554</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>0.722</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>10.24.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>3.144</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>1.677</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>0.964</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>1.699</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>10.24.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>1.291</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>2.648</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>1.669</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>1.009</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>1.845</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>0.656</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>10.25.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="B1876" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1876"/>
+  <dimension ref="A1:C1932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -27446,6 +27446,814 @@
     </row>
     <row r="1876">
       <c r="B1876" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>0.724</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>4.018</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>3.359</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>1.124</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>1.063</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>1.081</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>4.489</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>0.779</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>1.424</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>5.128</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>1.647</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>1.382</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>1.118</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>1.501</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>4.646</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>2.303</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>1.657</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>3.982</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>4.174</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>4.811</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>1.118</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>1.313</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="B1932" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -27498,7 +28306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1876"/>
+  <dimension ref="A1:C1932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -54592,6 +55400,814 @@
     </row>
     <row r="1876">
       <c r="B1876" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>0.322</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>2.779</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>0.415</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>1.779</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>10.25.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>0.707</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>1.649</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>1.023</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>1.551</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>1.871</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>0.661</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>10.25.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>1.041</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>2.183</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>1.616</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>10.26.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>2.378</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>1.624</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>1.701</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>1.726</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>10.26.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>0.607</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="B1932" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1932"/>
+  <dimension ref="A1:C2114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -28254,6 +28254,2632 @@
     </row>
     <row r="1932">
       <c r="B1932" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>1.394</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>4.913</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>3.712</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>1.696</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>1.355</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>4.719</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>0.884</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1949" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1950" t="n">
+        <v>1.806</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1951" t="n">
+        <v>3.973</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1952" t="n">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1953" t="n">
+        <v>1.265</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1954" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1955" t="n">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1956" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1957" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1958" t="n">
+        <v>0.898</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1959" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1961" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1962" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1963" t="n">
+        <v>1.397</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1964" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1965" t="n">
+        <v>8.615</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1966" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1967" t="n">
+        <v>1.124</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1968" t="n">
+        <v>1.041</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1969" t="n">
+        <v>1.057</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1970" t="n">
+        <v>4.959</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1971" t="n">
+        <v>2.056</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1972" t="n">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1973" t="n">
+        <v>0.779</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1975" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1976" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1977" t="n">
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1978" t="n">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1979" t="n">
+        <v>4.778</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1980" t="n">
+        <v>1.362</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1981" t="n">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1982" t="n">
+        <v>3.069</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1983" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1984" t="n">
+        <v>4.232</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1985" t="n">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:47 (Kyiv+Israel) 04:47 (UTC) 13:47 (Japan) 10:17 (India)</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1986" t="n">
+        <v>1.388</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:47 (Kyiv+Israel) 04:47 (UTC) 13:47 (Japan) 10:17 (India)</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C1987" t="n">
+        <v>1.327</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1989" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1990" t="n">
+        <v>1.081</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C1991" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1992" t="n">
+        <v>2.521</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C1993" t="n">
+        <v>3.885</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1994" t="n">
+        <v>1.774</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1995" t="n">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1996" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C1997" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C1998" t="n">
+        <v>4.365</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C1999" t="n">
+        <v>0.853</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2000" t="n">
+        <v>0.897</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2003" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2004" t="n">
+        <v>1.097</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2005" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2006" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2007" t="n">
+        <v>4.089</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2008" t="n">
+        <v>1.162</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2009" t="n">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2010" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2011" t="n">
+        <v>1.118</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2012" t="n">
+        <v>4.289</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2013" t="n">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2014" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2015" t="n">
+        <v>1.343</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2017" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2018" t="n">
+        <v>1.499</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2019" t="n">
+        <v>1.211</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2020" t="n">
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2021" t="n">
+        <v>3.947</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2022" t="n">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2023" t="n">
+        <v>1.299</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2024" t="n">
+        <v>1.239</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2025" t="n">
+        <v>1.289</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2026" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2027" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2028" t="n">
+        <v>0.899</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2029" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2031" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2032" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2033" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2034" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2035" t="n">
+        <v>4.029</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2036" t="n">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2037" t="n">
+        <v>1.267</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2038" t="n">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2039" t="n">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2040" t="n">
+        <v>4.141</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2041" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2042" t="n">
+        <v>1.371</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2043" t="n">
+        <v>0.803</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2045" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2046" t="n">
+        <v>1.438</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2047" t="n">
+        <v>2.934</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2048" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2049" t="n">
+        <v>4.138</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2050" t="n">
+        <v>1.348</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2051" t="n">
+        <v>1.453</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2052" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2053" t="n">
+        <v>1.171</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2054" t="n">
+        <v>4.208</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2055" t="n">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2056" t="n">
+        <v>1.279</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2057" t="n">
+        <v>1.387</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2059" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2060" t="n">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2061" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2062" t="n">
+        <v>1.493</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2063" t="n">
+        <v>4.056</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2064" t="n">
+        <v>1.134</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2065" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2066" t="n">
+        <v>1.084</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2067" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2068" t="n">
+        <v>4.226</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2069" t="n">
+        <v>0.757</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2070" t="n">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2071" t="n">
+        <v>0.724</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2073" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2074" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2075" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2076" t="n">
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2077" t="n">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2078" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2079" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2080" t="n">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2081" t="n">
+        <v>1.055</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2082" t="n">
+        <v>4.634</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2083" t="n">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2084" t="n">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2085" t="n">
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2087" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2088" t="n">
+        <v>1.029</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2089" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2090" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2091" t="n">
+        <v>4.023</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2092" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2093" t="n">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2094" t="n">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2095" t="n">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2096" t="n">
+        <v>4.235</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2097" t="n">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2098" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2099" t="n">
+        <v>0.712</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2101" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2102" t="n">
+        <v>1.531</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2103" t="n">
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2104" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2105" t="n">
+        <v>5.104</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2106" t="n">
+        <v>1.457</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2107" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2108" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2109" t="n">
+        <v>1.285</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2110" t="n">
+        <v>4.339</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2111" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2112" t="n">
+        <v>1.285</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2113" t="n">
+        <v>1.193</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="B2114" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -28306,7 +30932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1932"/>
+  <dimension ref="A1:C2114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -56208,6 +58834,2632 @@
     </row>
     <row r="1932">
       <c r="B1932" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>2.001</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>1.813</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>0.696</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>10.26.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1949" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1950" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1951" t="n">
+        <v>1.586</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1952" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1953" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1954" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1955" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1956" t="n">
+        <v>1.756</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1957" t="n">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1958" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>10.26.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1959" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1961" t="n">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1962" t="n">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1963" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:44 (Kyiv+Israel) 04:44 (UTC) 13:44 (Japan) 10:14 (India)</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1964" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1965" t="n">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1966" t="n">
+        <v>1.159</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1967" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1968" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1969" t="n">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1970" t="n">
+        <v>1.795</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1971" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1972" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:45 (Kyiv+Israel) 04:45 (UTC) 13:45 (Japan) 10:15 (India)</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1973" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1975" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1976" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1977" t="n">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1978" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1979" t="n">
+        <v>1.904</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1980" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1981" t="n">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1982" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1983" t="n">
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:46 (Kyiv+Israel) 04:46 (UTC) 13:46 (Japan) 10:16 (India)</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1984" t="n">
+        <v>1.835</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:47 (Kyiv+Israel) 04:47 (UTC) 13:47 (Japan) 10:17 (India)</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1985" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:47 (Kyiv+Israel) 04:47 (UTC) 13:47 (Japan) 10:17 (India)</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1986" t="n">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>10.27.2022 07:47 (Kyiv+Israel) 04:47 (UTC) 13:47 (Japan) 10:17 (India)</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1987" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1989" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1990" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1991" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1992" t="n">
+        <v>0.757</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1993" t="n">
+        <v>1.618</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1994" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1995" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1996" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1997" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1998" t="n">
+        <v>1.715</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C1999" t="n">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:55 (Kyiv+Israel) 06:55 (UTC) 15:55 (Japan) 12:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2000" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>10.27.2022 09:56 (Kyiv+Israel) 06:56 (UTC) 15:56 (Japan) 12:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2003" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2004" t="n">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2005" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2006" t="n">
+        <v>2.933</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2007" t="n">
+        <v>1.741</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2008" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2009" t="n">
+        <v>0.488</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2010" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2011" t="n">
+        <v>1.118</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2012" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2013" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2014" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>10.27.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2015" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2017" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2018" t="n">
+        <v>1.356</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2019" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2020" t="n">
+        <v>2.379</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2021" t="n">
+        <v>2.057</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2022" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2023" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2024" t="n">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2025" t="n">
+        <v>1.102</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2026" t="n">
+        <v>1.804</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2027" t="n">
+        <v>0.409</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2028" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>10.27.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2029" t="n">
+        <v>0.451</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2031" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2032" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2033" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2034" t="n">
+        <v>2.767</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2035" t="n">
+        <v>1.715</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2036" t="n">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2037" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2038" t="n">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2039" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2040" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2041" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2042" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>10.27.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2043" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2045" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2046" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2047" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2048" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2049" t="n">
+        <v>1.609</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2050" t="n">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2051" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2052" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2053" t="n">
+        <v>1.057</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2054" t="n">
+        <v>1.919</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2055" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2056" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>10.27.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2057" t="n">
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2059" t="n">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2060" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2061" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2062" t="n">
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2063" t="n">
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2064" t="n">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2065" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2066" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2067" t="n">
+        <v>0.953</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:55 (Kyiv+Israel) 09:55 (UTC) 18:55 (Japan) 15:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2068" t="n">
+        <v>1.812</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2069" t="n">
+        <v>0.322</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2070" t="n">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>10.28.2022 12:56 (Kyiv+Israel) 09:56 (UTC) 18:56 (Japan) 15:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2071" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2073" t="n">
+        <v>0.419</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2074" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2075" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2076" t="n">
+        <v>2.388</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2077" t="n">
+        <v>1.699</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2078" t="n">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2079" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2080" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2081" t="n">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2082" t="n">
+        <v>1.748</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2083" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2084" t="n">
+        <v>0.649</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>10.28.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2085" t="n">
+        <v>0.819</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2087" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2088" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2089" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2090" t="n">
+        <v>2.256</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2091" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2092" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2093" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2094" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2095" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2096" t="n">
+        <v>1.633</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:55 (Kyiv+Israel) 15:55 (UTC) 00:55 (Japan) 21:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2097" t="n">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2098" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>10.28.2022 18:56 (Kyiv+Israel) 15:56 (UTC) 00:56 (Japan) 21:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2099" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2101" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2102" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2103" t="n">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2104" t="n">
+        <v>2.023</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2105" t="n">
+        <v>2.318</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2106" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2107" t="n">
+        <v>0.427</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2108" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2109" t="n">
+        <v>1.844</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2110" t="n">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2111" t="n">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2112" t="n">
+        <v>0.868</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>10.28.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2113" t="n">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="B2114" t="inlineStr">
         <is>
           <t>*****</t>
         </is>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (08.2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2114"/>
+  <dimension ref="A1:C2310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -30880,6 +30880,2834 @@
     </row>
     <row r="2114">
       <c r="B2114" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2115" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2116" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2117" t="n">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2118" t="n">
+        <v>0.849</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2119" t="n">
+        <v>4.072</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2120" t="n">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2121" t="n">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2122" t="n">
+        <v>1.058</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2123" t="n">
+        <v>1.027</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2124" t="n">
+        <v>4.226</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2125" t="n">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2126" t="n">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2127" t="n">
+        <v>0.762</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:00 (Kyiv+Israel) 16:00 (UTC) 01:00 (Japan) 21:30 (India)</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2129" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:00 (Kyiv+Israel) 16:00 (UTC) 01:00 (Japan) 21:30 (India)</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2130" t="n">
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:00 (Kyiv+Israel) 16:00 (UTC) 01:00 (Japan) 21:30 (India)</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2131" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:00 (Kyiv+Israel) 16:00 (UTC) 01:00 (Japan) 21:30 (India)</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2132" t="n">
+        <v>3.332</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2133" t="n">
+        <v>3.952</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2134" t="n">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2135" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2136" t="n">
+        <v>1.155</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2137" t="n">
+        <v>0.981</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2138" t="n">
+        <v>4.613</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2139" t="n">
+        <v>1.868</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2140" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2141" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2143" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2144" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.911</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2147" t="n">
+        <v>4.024</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2148" t="n">
+        <v>1.374</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2149" t="n">
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2150" t="n">
+        <v>1.381</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2151" t="n">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2152" t="n">
+        <v>4.109</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2154" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.713</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2157" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2158" t="n">
+        <v>1.899</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2159" t="n">
+        <v>1.959</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2160" t="n">
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2161" t="n">
+        <v>4.417</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2162" t="n">
+        <v>1.916</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2163" t="n">
+        <v>2.689</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2164" t="n">
+        <v>1.741</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2165" t="n">
+        <v>1.616</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2166" t="n">
+        <v>4.352</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2167" t="n">
+        <v>1.158</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2168" t="n">
+        <v>1.891</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2169" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2172" t="n">
+        <v>1.184</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2173" t="n">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2174" t="n">
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2175" t="n">
+        <v>3.917</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2176" t="n">
+        <v>3.818</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2177" t="n">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2178" t="n">
+        <v>1.189</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2179" t="n">
+        <v>1.084</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2180" t="n">
+        <v>4.251</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2181" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2182" t="n">
+        <v>1.084</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2183" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2185" t="n">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2186" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2187" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2188" t="n">
+        <v>2.122</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2189" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2190" t="n">
+        <v>1.184</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2191" t="n">
+        <v>1.166</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2192" t="n">
+        <v>1.097</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2193" t="n">
+        <v>1.059</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2194" t="n">
+        <v>4.029</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2195" t="n">
+        <v>0.728</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2196" t="n">
+        <v>0.977</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2197" t="n">
+        <v>0.757</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2199" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2200" t="n">
+        <v>1.116</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2201" t="n">
+        <v>2.718</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2202" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2203" t="n">
+        <v>4.038</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2204" t="n">
+        <v>1.284</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2205" t="n">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2206" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2207" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2208" t="n">
+        <v>4.339</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2209" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2210" t="n">
+        <v>1.399</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2211" t="n">
+        <v>1.201</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2213" t="n">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2214" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2215" t="n">
+        <v>1.299</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2216" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2217" t="n">
+        <v>3.904</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2218" t="n">
+        <v>1.482</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2219" t="n">
+        <v>1.345</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2220" t="n">
+        <v>1.282</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2221" t="n">
+        <v>1.462</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2222" t="n">
+        <v>4.114</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2223" t="n">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2224" t="n">
+        <v>0.864</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2225" t="n">
+        <v>0.834</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2227" t="n">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2228" t="n">
+        <v>1.219</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2229" t="n">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2230" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2231" t="n">
+        <v>4.018</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2232" t="n">
+        <v>1.742</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2233" t="n">
+        <v>1.282</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2234" t="n">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2235" t="n">
+        <v>1.192</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2236" t="n">
+        <v>4.489</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2237" t="n">
+        <v>7.251</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2238" t="n">
+        <v>4.997</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2239" t="n">
+        <v>0.884</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2241" t="n">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2242" t="n">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2243" t="n">
+        <v>0.906</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2244" t="n">
+        <v>2.585</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2245" t="n">
+        <v>3.758</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2246" t="n">
+        <v>1.353</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2247" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2248" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2249" t="n">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2250" t="n">
+        <v>4.911</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2251" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2252" t="n">
+        <v>1.369</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2253" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2255" t="n">
+        <v>0.232</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2256" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2257" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2258" t="n">
+        <v>0.856</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2259" t="n">
+        <v>4.054</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2260" t="n">
+        <v>2.048</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2261" t="n">
+        <v>1.096</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2262" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2263" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2264" t="n">
+        <v>4.181</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2265" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2266" t="n">
+        <v>0.827</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2267" t="n">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2269" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2270" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2271" t="n">
+        <v>0.886</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2272" t="n">
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2273" t="n">
+        <v>3.889</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2274" t="n">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2275" t="n">
+        <v>1.465</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2276" t="n">
+        <v>1.057</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2277" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2278" t="n">
+        <v>4.644</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2279" t="n">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2280" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2281" t="n">
+        <v>1.015</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2283" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2284" t="n">
+        <v>1.102</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2285" t="n">
+        <v>2.552</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2286" t="n">
+        <v>1.732</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2287" t="n">
+        <v>4.122</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2288" t="n">
+        <v>1.281</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2289" t="n">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2290" t="n">
+        <v>1.909</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2291" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2292" t="n">
+        <v>4.913</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2293" t="n">
+        <v>1.188</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2294" t="n">
+        <v>0.902</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2295" t="n">
+        <v>4.324</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2297" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2298" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C2299" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2300" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C2301" t="n">
+        <v>3.898</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2302" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2303" t="n">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2304" t="n">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C2305" t="n">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C2306" t="n">
+        <v>4.365</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2307" t="n">
+        <v>0.769</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C2308" t="n">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C2309" t="n">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="B2310" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
@@ -30932,7 +33760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2114"/>
+  <dimension ref="A1:C2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -61460,6 +64288,2834 @@
     </row>
     <row r="2114">
       <c r="B2114" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2115" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2116" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2117" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2118" t="n">
+        <v>2.316</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2119" t="n">
+        <v>1.653</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2120" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2121" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2122" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2123" t="n">
+        <v>1.053</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2124" t="n">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2125" t="n">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:55 (Kyiv+Israel) 12:55 (UTC) 21:55 (Japan) 18:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2126" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>10.29.2022 15:56 (Kyiv+Israel) 12:56 (UTC) 21:56 (Japan) 18:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2127" t="n">
+        <v>0.727</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:00 (Kyiv+Israel) 16:00 (UTC) 01:00 (Japan) 21:30 (India)</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2129" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:00 (Kyiv+Israel) 16:00 (UTC) 01:00 (Japan) 21:30 (India)</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2130" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:00 (Kyiv+Israel) 16:00 (UTC) 01:00 (Japan) 21:30 (India)</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2131" t="n">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2132" t="n">
+        <v>2.118</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2133" t="n">
+        <v>1.699</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2134" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2135" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2136" t="n">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2137" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2138" t="n">
+        <v>1.787</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2139" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2140" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>10.29.2022 19:01 (Kyiv+Israel) 16:01 (UTC) 01:01 (Japan) 21:31 (India)</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2141" t="n">
+        <v>0.584</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2143" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2144" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.468</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2147" t="n">
+        <v>1.657</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2150" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:55 (Kyiv+Israel) 18:55 (UTC) 03:55 (Japan) 00:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2152" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2154" t="n">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>10.29.2022 21:56 (Kyiv+Israel) 18:56 (UTC) 03:56 (Japan) 00:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2157" t="n">
+        <v>0.631</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2158" t="n">
+        <v>0.679</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2160" t="n">
+        <v>2.503</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2161" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2163" t="n">
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2164" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2165" t="n">
+        <v>2.287</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2166" t="n">
+        <v>2.278</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2167" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2168" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>10.30.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2169" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2172" t="n">
+        <v>0.507</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2173" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2174" t="n">
+        <v>2.259</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2175" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2176" t="n">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2178" t="n">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2179" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2180" t="n">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2181" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2182" t="n">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>10.30.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2183" t="n">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2185" t="n">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2186" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2187" t="n">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2188" t="n">
+        <v>2.361</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2189" t="n">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2190" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2191" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2192" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2193" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2194" t="n">
+        <v>1.622</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2195" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2196" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>10.30.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2197" t="n">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2199" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2200" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2201" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2202" t="n">
+        <v>2.022</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2203" t="n">
+        <v>1.682</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2204" t="n">
+        <v>0.409</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2205" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2206" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2207" t="n">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2208" t="n">
+        <v>1.742</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2209" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2210" t="n">
+        <v>0.594</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>10.30.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2211" t="n">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2213" t="n">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2214" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2215" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2216" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2217" t="n">
+        <v>1.628</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2218" t="n">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2219" t="n">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2220" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2221" t="n">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2222" t="n">
+        <v>1.702</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2223" t="n">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2224" t="n">
+        <v>0.615</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>10.31.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2225" t="n">
+        <v>0.848</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2227" t="n">
+        <v>2.241</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2228" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2229" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2230" t="n">
+        <v>2.344</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2231" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2232" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2233" t="n">
+        <v>0.415</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2234" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2235" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2236" t="n">
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2237" t="n">
+        <v>1.148</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2238" t="n">
+        <v>2.006</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>10.31.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2239" t="n">
+        <v>0.528</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2241" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2242" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2243" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2244" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2245" t="n">
+        <v>1.646</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2246" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2247" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2248" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2249" t="n">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2250" t="n">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2251" t="n">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2252" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>10.31.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2253" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2255" t="n">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2256" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2257" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2258" t="n">
+        <v>3.028</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2259" t="n">
+        <v>1.765</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2260" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2261" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2262" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2263" t="n">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2264" t="n">
+        <v>1.678</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2265" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2266" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>10.31.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2267" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2269" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2270" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2271" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:31 (Kyiv+Israel) 05:31 (UTC) 14:31 (Japan) 11:01 (India)</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2272" t="n">
+        <v>2.466</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2273" t="n">
+        <v>1.614</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2274" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2275" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2276" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2277" t="n">
+        <v>0.956</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2278" t="n">
+        <v>1.671</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2279" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2280" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>11.01.2022 07:32 (Kyiv+Israel) 05:32 (UTC) 14:32 (Japan) 11:02 (India)</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2281" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2283" t="n">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2284" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2285" t="n">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2286" t="n">
+        <v>2.223</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2287" t="n">
+        <v>1.695</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2288" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2289" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2290" t="n">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2291" t="n">
+        <v>0.977</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2292" t="n">
+        <v>2.293</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2293" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2294" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>11.01.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2295" t="n">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2297" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2298" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2299" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>https://ipsos-russia.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2300" t="n">
+        <v>1.865</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2301" t="n">
+        <v>1.637</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2302" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2303" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2304" t="n">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2305" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2306" t="n">
+        <v>1.779</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2307" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2308" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>11.01.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C2309" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="B2310" t="inlineStr">
         <is>
           <t>*****</t>
         </is>
